--- a/datasheet_kopie.xlsx
+++ b/datasheet_kopie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanblackmore/Documents/AA Studie/Master/Q1/Operations Optimisation/MILP_Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5284724D-8758-624F-AA9B-E4D25C0C8815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A445C3-C69B-9E44-9B37-DD63CFD1856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-920" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{5F5361A1-35E0-444D-99D6-775B076FC792}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{5F5361A1-35E0-444D-99D6-775B076FC792}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>E</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>Vehicle</t>
+  </si>
+  <si>
+    <t>02'</t>
+  </si>
+  <si>
+    <t>12'</t>
+  </si>
+  <si>
+    <t>20'</t>
+  </si>
+  <si>
+    <t>21'</t>
   </si>
 </sst>
 </file>
@@ -270,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -284,6 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -811,7 +824,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="G3" sqref="A1:G3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,8 +891,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -912,7 +932,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,36 +973,88 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D4" s="9">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="D4" s="9"/>
-    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>

--- a/datasheet_kopie.xlsx
+++ b/datasheet_kopie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanblackmore/Documents/AA Studie/Master/Q1/Operations Optimisation/MILP_Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keesoosterhout/Documents/Documents - Kees’s MacBook Pro/TU Delft/MSc/Jaar 1/Q1/Operations Optimisation/Operations Assignment 2/MILP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A445C3-C69B-9E44-9B37-DD63CFD1856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342595D7-BD1A-374C-8C9B-0C204D782267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{5F5361A1-35E0-444D-99D6-775B076FC792}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{5F5361A1-35E0-444D-99D6-775B076FC792}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -296,10 +296,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -315,7 +314,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -824,7 +823,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,7 +931,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,10 +1014,10 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="13">
-        <v>5</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
@@ -1035,7 +1034,7 @@
       <c r="D6" s="9">
         <v>2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6">
         <v>3</v>
       </c>
     </row>
@@ -1050,9 +1049,9 @@
         <v>1</v>
       </c>
       <c r="D7" s="9">
-        <v>12</v>
-      </c>
-      <c r="E7" s="13">
+        <v>100</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
     </row>

--- a/datasheet_kopie.xlsx
+++ b/datasheet_kopie.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keesoosterhout/Documents/Documents - Kees’s MacBook Pro/TU Delft/MSc/Jaar 1/Q1/Operations Optimisation/Operations Assignment 2/MILP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanblackmore/Documents/AA Studie/Master/Q1/Operations Optimisation/MILP_Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342595D7-BD1A-374C-8C9B-0C204D782267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19268DB-6941-184A-955E-F690FE7E2E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{5F5361A1-35E0-444D-99D6-775B076FC792}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="2" xr2:uid="{5F5361A1-35E0-444D-99D6-775B076FC792}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="1" r:id="rId1"/>
-    <sheet name="Vertices" sheetId="3" r:id="rId2"/>
-    <sheet name="Arcs" sheetId="2" r:id="rId3"/>
+    <sheet name="NL_vertices" sheetId="3" r:id="rId2"/>
+    <sheet name="NL_arcs" sheetId="2" r:id="rId3"/>
     <sheet name="Other" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -298,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -931,7 +931,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/datasheet_kopie.xlsx
+++ b/datasheet_kopie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanblackmore/Documents/AA Studie/Master/Q1/Operations Optimisation/MILP_Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19268DB-6941-184A-955E-F690FE7E2E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4BE670-1713-1340-8FA0-788C8B198CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="2" xr2:uid="{5F5361A1-35E0-444D-99D6-775B076FC792}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{5F5361A1-35E0-444D-99D6-775B076FC792}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>E</t>
   </si>
@@ -177,6 +177,24 @@
   </si>
   <si>
     <t>21'</t>
+  </si>
+  <si>
+    <t>03'</t>
+  </si>
+  <si>
+    <t>13'</t>
+  </si>
+  <si>
+    <t>23'</t>
+  </si>
+  <si>
+    <t>31'</t>
+  </si>
+  <si>
+    <t>30'</t>
+  </si>
+  <si>
+    <t>32'</t>
   </si>
 </sst>
 </file>
@@ -282,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -296,6 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -823,7 +842,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,10 +893,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="9">
         <v>4</v>
@@ -894,16 +913,23 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5</v>
+      </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -930,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E3C333-77AE-4145-BF56-652F0C24E420}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -984,93 +1010,178 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2</v>
+      <c r="D6">
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9">
+        <v>6</v>
+      </c>
+      <c r="E10" s="13">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="9"/>
+      <c r="A11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="9"/>
+      <c r="A12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>14</v>
+      </c>
+      <c r="E12" s="13">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="9"/>
+      <c r="A13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>12</v>
+      </c>
+      <c r="E13" s="13">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="9"/>
@@ -1171,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E4D0F8-9C33-8041-8AC2-67D48777EAA4}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1313,7 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">

--- a/datasheet_kopie.xlsx
+++ b/datasheet_kopie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanblackmore/Documents/AA Studie/Master/Q1/Operations Optimisation/MILP_Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keesoosterhout/Documents/Documents - Kees’s MacBook Pro/TU Delft/MSc/Jaar 1/Q1/Operations Optimisation/Operations Assignment 2/MILP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4BE670-1713-1340-8FA0-788C8B198CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAA33C8-87D0-AA45-B7D3-EBA9A92D9329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{5F5361A1-35E0-444D-99D6-775B076FC792}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{5F5361A1-35E0-444D-99D6-775B076FC792}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -314,10 +314,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -333,7 +332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1128,7 +1127,7 @@
       <c r="D10" s="9">
         <v>6</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10">
         <v>12</v>
       </c>
     </row>
@@ -1145,7 +1144,7 @@
       <c r="D11" s="9">
         <v>11</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11">
         <v>22</v>
       </c>
     </row>
@@ -1162,7 +1161,7 @@
       <c r="D12" s="9">
         <v>14</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12">
         <v>28</v>
       </c>
     </row>
@@ -1179,7 +1178,7 @@
       <c r="D13" s="9">
         <v>12</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13">
         <v>24</v>
       </c>
     </row>
@@ -1283,7 +1282,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1307,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>100</v>

--- a/datasheet_kopie.xlsx
+++ b/datasheet_kopie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keesoosterhout/Documents/Documents - Kees’s MacBook Pro/TU Delft/MSc/Jaar 1/Q1/Operations Optimisation/Operations Assignment 2/MILP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAA33C8-87D0-AA45-B7D3-EBA9A92D9329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092FECD6-A75E-8941-8935-B9379E81CF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{5F5361A1-35E0-444D-99D6-775B076FC792}"/>
   </bookViews>
@@ -841,7 +841,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="9">
         <v>4</v>
@@ -915,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -956,7 +956,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1108,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1159,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1176,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="9">
+        <v>6</v>
+      </c>
+      <c r="E13">
         <v>12</v>
-      </c>
-      <c r="E13">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1306,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>100</v>

--- a/datasheet_kopie.xlsx
+++ b/datasheet_kopie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keesoosterhout/Documents/Documents - Kees’s MacBook Pro/TU Delft/MSc/Jaar 1/Q1/Operations Optimisation/Operations Assignment 2/MILP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092FECD6-A75E-8941-8935-B9379E81CF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37363FF0-B5A6-4147-A29A-5E6C17C0CC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{5F5361A1-35E0-444D-99D6-775B076FC792}"/>
   </bookViews>
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1306,13 +1306,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
